--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="计划" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>监管服务平台9月9日前完成的任务清单</t>
   </si>
   <si>
-    <t>2、系统管理，包括组织机构、用户、角色权限的页面实现和交互</t>
-  </si>
-  <si>
-    <t>3、生产主体审核功能实现，完成根据用户身份获取待办信息，审核流程实现，以及审核查询的页面和前后端交互</t>
-  </si>
-  <si>
-    <t>5、其余各子菜单列出，页面都一样的画一个，让每个菜单点进去不空即可</t>
-  </si>
-  <si>
-    <t>菜单列出，表格页面画一个，统计图做几个，都是静态的，点进去不空即可</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -41,15 +35,25 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、系统登陆，页面及前后端交互</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、系统管理，包括组织机构、用户、角色权限的页面实现和交互</t>
+  </si>
+  <si>
+    <t>3、生产主体审核功能实现，完成根据用户身份获取待办信息，审核流程实现，以及审核查询的页面和前后端交互</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -57,135 +61,151 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、首页的静态页面，模拟数据即可</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、其余各子菜单列出，页面都一样的画一个，让每个菜单点进去不空即可</t>
+  </si>
+  <si>
+    <t>分析预警平台：</t>
+  </si>
+  <si>
+    <t>菜单列出，表格页面画一个，统计图做几个，都是静态的，点进去不空即可</t>
+  </si>
+  <si>
+    <t>https://adminlte.io/</t>
   </si>
   <si>
     <t>登录模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实交互</t>
   </si>
   <si>
     <t>首页模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部导航</t>
+  </si>
+  <si>
+    <t>静态数据</t>
   </si>
   <si>
     <t>赋码企业看板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>地区主管综合看板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部导航</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>溯源监管平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧菜单</t>
   </si>
   <si>
     <t>系统管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>组织机构管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>角色管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>角色及权限管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主体审核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>待审核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
   </si>
   <si>
     <t>历史审核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>查看审核结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>省级-审核通过</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>其余菜单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>页面不空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析预警平台：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分析预警平台</t>
   </si>
   <si>
-    <t>左侧菜单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>表格页面画一个，统计图做几个，都是静态的，点进去不空即可</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://adminlte.io/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工期</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>时间（小时）</t>
+  </si>
+  <si>
+    <t>第一期</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -193,24 +213,153 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +372,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -234,38 +569,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -273,79 +608,391 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -628,242 +1275,243 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="89.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="22" customFormat="1" spans="1:1">
+      <c r="A3" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="22" customFormat="1" spans="1:1">
+      <c r="A4" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="5" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="5" customFormat="1">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="25"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
+      <c r="A9" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
+      <c r="A14" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://adminlte.io/"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="51" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="17.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="51" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="10" t="s">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="10" t="s">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="10" t="s">
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="19"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:2">
+      <c r="B17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -872,21 +1520,128 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B14"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43344</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4">
+        <v>43345</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4">
+        <v>43346</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4">
+        <v>43347</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4">
+        <v>43348</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4">
+        <v>43349</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4">
+        <v>43350</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4">
+        <v>43351</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4">
+        <v>43352</v>
+      </c>
+      <c r="C11" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A11"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -321,7 +321,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +363,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,8 +392,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -789,7 +792,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -801,7 +804,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
@@ -811,7 +814,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -821,7 +824,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -831,8 +834,8 @@
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -841,24 +844,24 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -867,39 +870,39 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
@@ -940,7 +943,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -958,15 +961,15 @@
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="3">
@@ -977,7 +980,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="26"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="3">
         <v>43345</v>
       </c>
@@ -986,7 +989,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="3">
         <v>43346</v>
       </c>
@@ -995,7 +998,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3">
         <v>43347</v>
       </c>
@@ -1004,7 +1007,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="3">
         <v>43348</v>
       </c>
@@ -1013,7 +1016,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="3">
         <v>43349</v>
       </c>
@@ -1022,7 +1025,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3">
         <v>43350</v>
       </c>
@@ -1031,7 +1034,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="3">
         <v>43351</v>
       </c>
@@ -1040,7 +1043,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="3">
         <v>43352</v>
       </c>
@@ -1055,8 +1058,14 @@
       <c r="B13" s="5">
         <v>43354</v>
       </c>
-      <c r="D13" s="28">
+      <c r="C13" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="19">
         <v>0.85416666666666663</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.95833333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="计划" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>监管服务平台9月9日前完成的任务清单</t>
   </si>
@@ -26,7 +26,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -35,7 +35,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、系统登陆，页面及前后端交互</t>
@@ -53,7 +52,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -62,7 +61,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、首页的静态页面，模拟数据即可</t>
@@ -159,22 +157,26 @@
     <t>时间（小时）</t>
   </si>
   <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
     <t>第一期</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,12 +197,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -210,36 +206,160 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +372,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -313,15 +619,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,78 +874,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -689,12 +1271,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -707,224 +1289,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="13" customFormat="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" s="22" customFormat="1" spans="1:1">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="13" customFormat="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" s="22" customFormat="1" spans="1:1">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="27" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://adminlte.io/"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="51" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="17.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="51" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="21" t="s">
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="24" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="9" t="s">
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="9" t="s">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="9" t="s">
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="9" t="s">
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="9" t="s">
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="9" t="s">
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="9" t="s">
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="8" t="s">
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="12"/>
+    <row r="17" customHeight="1" spans="2:2">
+      <c r="B17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -933,20 +1516,21 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B14"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
@@ -961,119 +1545,130 @@
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>43344</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="28"/>
-      <c r="B4" s="3">
+    <row r="4" spans="1:3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5">
         <v>43345</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="28"/>
-      <c r="B5" s="3">
+    <row r="5" spans="1:3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5">
         <v>43346</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="28"/>
-      <c r="B6" s="3">
+    <row r="6" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5">
         <v>43347</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="28"/>
-      <c r="B7" s="3">
+    <row r="7" spans="1:3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5">
         <v>43348</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="3">
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5">
         <v>43349</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="28"/>
-      <c r="B9" s="3">
+    <row r="9" spans="1:3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5">
         <v>43350</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="3">
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5">
         <v>43351</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="29"/>
-      <c r="B11" s="3">
+    <row r="11" spans="1:3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5">
         <v>43352</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="5">
+    <row r="12" spans="2:2">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="9">
         <v>43354</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="10">
         <v>2.5</v>
       </c>
-      <c r="D13" s="19">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0.95833333333333337</v>
+      <c r="D13" s="11">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="9">
+        <v>43355</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.767361111111111</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.795138888888889</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="计划" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="时长" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>监管服务平台9月9日前完成的任务清单</t>
   </si>
@@ -26,7 +27,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -35,7 +36,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、系统登陆，页面及前后端交互</t>
@@ -53,7 +53,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -62,7 +62,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、首页的静态页面，模拟数据即可</t>
@@ -166,13 +165,66 @@
   </si>
   <si>
     <t>第一期</t>
+  </si>
+  <si>
+    <t>没有编辑角色的接口</t>
+  </si>
+  <si>
+    <r>
+      <t>设置权限，报错-系统内部错误，服务内部传递的权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数是数组格式，但是请求方式是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方式</t>
+    </r>
+  </si>
+  <si>
+    <t>新增、编辑角色的时候有个备注项，接口里面没看到对应参数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +232,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -202,29 +254,160 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +420,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -298,27 +667,275 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -332,14 +949,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,31 +978,59 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -665,12 +1319,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -683,224 +1337,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="16" customFormat="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" s="22" customFormat="1" spans="1:1">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="16" customFormat="1">
-      <c r="A4" s="18" t="s">
+    <row r="4" s="22" customFormat="1" spans="1:1">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="27" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://adminlte.io/"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="51" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="17.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="51" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="22" t="s">
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="22" t="s">
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="12" t="s">
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="12" t="s">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25" t="s">
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="12" t="s">
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="12" t="s">
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="12" t="s">
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="12" t="s">
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="12" t="s">
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="11" t="s">
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="15"/>
+    <row r="17" customHeight="1" spans="2:2">
+      <c r="B17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -909,167 +1564,228 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B14"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>43344</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="23"/>
-      <c r="B4" s="4">
+    <row r="4" spans="1:3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5">
         <v>43345</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="23"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5">
         <v>43346</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="23"/>
-      <c r="B6" s="4">
+    <row r="6" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5">
         <v>43347</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="4">
+    <row r="7" spans="1:3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5">
         <v>43348</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="4">
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5">
         <v>43349</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="4">
+    <row r="9" spans="1:3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5">
         <v>43350</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
-      <c r="B10" s="4">
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5">
         <v>43351</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="24"/>
-      <c r="B11" s="4">
+    <row r="11" spans="1:3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5">
         <v>43352</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="6">
+    <row r="12" spans="2:2">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="9">
         <v>43354</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>2.5</v>
       </c>
-      <c r="D13" s="8">
-        <v>0.85416666666666696</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.95833333333333304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="6">
+      <c r="D13" s="11">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="9">
         <v>43355</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>2.5</v>
       </c>
-      <c r="D14" s="8">
-        <v>0.76736111111111105</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.79513888888888895</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.93055555555555547</v>
+      <c r="D14" s="11">
+        <v>0.767361111111111</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.795138888888889</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.930555555555555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="9">
+        <v>43356</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.472222222222222</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A11"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="62.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>监管服务平台9月9日前完成的任务清单</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>设置权限，报错-系统内部错误，服务内部传递的权限</t>
     </r>
     <r>
@@ -213,6 +219,68 @@
   <si>
     <t>新增、编辑角色的时候有个备注项，接口里面没看到对应参数</t>
   </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <r>
+      <t>新增用户一直提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名不能为空（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>userName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），和角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(roleIds)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能为空，都传递了</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -422,6 +490,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,6 +520,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,6 +538,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -488,18 +574,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -524,30 +628,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,43 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,10 +839,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,16 +851,16 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,112 +873,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1575,7 +1643,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1720,7 +1788,7 @@
         <v>0.930555555555555</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:7">
       <c r="B15" s="9">
         <v>43356</v>
       </c>
@@ -1729,6 +1797,12 @@
       </c>
       <c r="E15" s="11">
         <v>0.472222222222222</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.631944444444444</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.611111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -1744,13 +1818,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1784,6 +1858,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="4:5">
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -224,6 +224,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新增用户一直提示</t>
     </r>
     <r>
@@ -288,9 +294,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -982,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1011,6 +1017,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,50 +1414,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="22" customFormat="1" spans="1:1">
-      <c r="A3" s="24" t="s">
+    <row r="3" s="23" customFormat="1" spans="1:1">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="22" customFormat="1" spans="1:1">
-      <c r="A4" s="24" t="s">
+    <row r="4" s="23" customFormat="1" spans="1:1">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1473,20 +1482,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="51" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="17.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="51" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1494,31 +1503,31 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="7"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="8"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1526,104 +1535,104 @@
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="7"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="7"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="7"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="7"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="7"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="7"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="7"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="7"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="8"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:2">
-      <c r="B17" s="21"/>
+      <c r="B17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1640,10 +1649,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1792,6 +1801,9 @@
       <c r="B15" s="9">
         <v>43356</v>
       </c>
+      <c r="C15" s="12">
+        <v>2.5</v>
+      </c>
       <c r="D15" s="11">
         <v>0.409722222222222</v>
       </c>
@@ -1804,6 +1816,74 @@
       <c r="G15" s="11">
         <v>0.611111111111111</v>
       </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="9">
+        <v>43357</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.604166666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -293,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -338,8 +338,120 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,44 +465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -399,36 +473,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,50 +480,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -496,187 +496,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,76 +742,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,157 +769,222 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1652,7 +1652,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1831,8 +1831,19 @@
         <v>0.604166666666667</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="12"/>
+    <row r="17" spans="2:5">
+      <c r="B17" s="9">
+        <v>43364</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.666666666666667</v>
+      </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="12"/>

--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -1064,7 +1064,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1278,7 +1278,18 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="C19" s="9"/>
+      <c r="B19" s="6">
+        <v>43366</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.58333333333333337</v>
+      </c>
     </row>
     <row r="20" spans="2:7">
       <c r="C20" s="9"/>

--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -1064,7 +1064,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1292,7 +1292,24 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="C20" s="9"/>
+      <c r="B20" s="6">
+        <v>43367</v>
+      </c>
+      <c r="C20" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="21" spans="2:7">
       <c r="C21" s="9"/>

--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -1064,7 +1064,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C21" sqref="C13:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1312,7 +1312,18 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="C21" s="9"/>
+      <c r="B21" s="6">
+        <v>43368</v>
+      </c>
+      <c r="C21" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.95833333333333337</v>
+      </c>
     </row>
     <row r="22" spans="2:7">
       <c r="C22" s="9"/>

--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="时长" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>监管服务平台9月9日前完成的任务清单</t>
   </si>
@@ -27,7 +27,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -36,7 +36,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、系统登陆，页面及前后端交互</t>
@@ -54,7 +53,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -63,7 +62,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、首页的静态页面，模拟数据即可</t>
@@ -177,7 +175,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>设置权限，报错-系统内部错误，服务内部传递的权限</t>
@@ -187,7 +184,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -196,7 +193,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>参数是数组格式，但是请求方式是</t>
@@ -206,7 +202,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>GET</t>
     </r>
@@ -215,7 +211,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>方式</t>
@@ -233,7 +228,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新增用户一直提示</t>
@@ -243,7 +237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -252,7 +246,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用户名不能为空（</t>
@@ -262,7 +255,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>userName</t>
     </r>
@@ -271,7 +264,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>），和角色</t>
@@ -281,7 +273,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(roleIds)</t>
     </r>
@@ -290,7 +282,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>不能为空，都传递了</t>
@@ -301,7 +292,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,42 +328,178 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,8 +512,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -440,12 +759,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="29">
@@ -457,10 +1015,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -485,6 +1052,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -497,31 +1073,59 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -810,12 +1414,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -828,224 +1432,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="17" customFormat="1">
-      <c r="A3" s="19" t="s">
+    <row r="3" s="23" customFormat="1" spans="1:1">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="17" customFormat="1">
-      <c r="A4" s="19" t="s">
+    <row r="4" s="23" customFormat="1" spans="1:1">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="26"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="28" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://adminlte.io/"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="51" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="17.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="51" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="23" t="s">
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="13" t="s">
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="13" t="s">
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26" t="s">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="13" t="s">
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="13" t="s">
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="13" t="s">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="13" t="s">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="13" t="s">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="12" t="s">
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="16"/>
+    <row r="17" customHeight="1" spans="2:2">
+      <c r="B17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1054,25 +1659,26 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B14"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C13:C21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -1089,300 +1695,307 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>43344</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="24"/>
-      <c r="B4" s="4">
+    <row r="4" spans="1:3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5">
         <v>43345</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="24"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5">
         <v>43346</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="24"/>
-      <c r="B6" s="4">
+    <row r="6" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5">
         <v>43347</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="4">
+    <row r="7" spans="1:3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5">
         <v>43348</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="24"/>
-      <c r="B8" s="4">
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5">
         <v>43349</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="24"/>
-      <c r="B9" s="4">
+    <row r="9" spans="1:3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5">
         <v>43350</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="24"/>
-      <c r="B10" s="4">
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5">
         <v>43351</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="25"/>
-      <c r="B11" s="4">
+    <row r="11" spans="1:3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5">
         <v>43352</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="6">
+    <row r="12" spans="2:2">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="9">
         <v>43354</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>2.5</v>
       </c>
-      <c r="D13" s="8">
-        <v>0.85416666666666696</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.95833333333333304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="6">
+      <c r="D13" s="11">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="9">
         <v>43355</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>2.5</v>
       </c>
-      <c r="D14" s="8">
-        <v>0.76736111111111105</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.79513888888888895</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.85416666666666696</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.93055555555555503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="6">
+      <c r="D14" s="11">
+        <v>0.767361111111111</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.795138888888889</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.930555555555555</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="9">
         <v>43356</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="12">
         <v>2.5</v>
       </c>
-      <c r="D15" s="8">
-        <v>0.40972222222222199</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.63194444444444398</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="6">
+      <c r="D15" s="11">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.631944444444444</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.611111111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="9">
         <v>43357</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="12">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.60416666666666696</v>
+      <c r="D16" s="11">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.604166666666667</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="6">
+      <c r="B17" s="9">
         <v>43364</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="12">
         <v>4</v>
       </c>
-      <c r="D17" s="8">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="D17" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G17" s="11">
         <v>0.875</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="6">
+    <row r="18" spans="2:5">
+      <c r="B18" s="9">
         <v>43365</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="12">
         <v>3</v>
       </c>
-      <c r="D18" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.67708333333333337</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="6">
+      <c r="D18" s="11">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.677083333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9">
         <v>43366</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="12">
         <v>2.5</v>
       </c>
-      <c r="D19" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.58333333333333337</v>
+      <c r="D19" s="11">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="6">
+      <c r="B20" s="9">
         <v>43367</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="12">
         <v>8.5</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="11">
         <v>0.375</v>
       </c>
-      <c r="E20" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="E20" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G20" s="11">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="6">
+    <row r="21" spans="2:5">
+      <c r="B21" s="9">
         <v>43368</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="12">
         <v>6.5</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="11">
         <v>0.6875</v>
       </c>
-      <c r="E21" s="8">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="C32" s="9"/>
+      <c r="E21" s="11">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="9">
+        <v>43369</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11">
+        <v>0.729166666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="9"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="9"/>
+      <c r="C34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -1411,12 +2024,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="5:5">
       <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="4:5">
       <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1425,8 +2038,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -293,12 +293,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +345,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -353,6 +383,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -367,8 +413,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,22 +429,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,19 +445,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,70 +480,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -514,6 +496,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,6 +544,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -586,31 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,66 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,54 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -826,8 +760,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,152 +806,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1667,13 +1649,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
@@ -1931,17 +1913,40 @@
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:5">
       <c r="B22" s="9">
         <v>43369</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="12">
+        <v>4</v>
+      </c>
       <c r="D22" s="11">
         <v>0.729166666666667</v>
       </c>
-    </row>
-    <row r="23" spans="3:3">
+      <c r="E22" s="11">
+        <v>0.895833333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="9">
+        <v>43370</v>
+      </c>
       <c r="C23" s="12"/>
+      <c r="D23" s="11">
+        <v>0.597222222222222</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.716666666666667</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.784722222222222</v>
+      </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="12"/>

--- a/static/资料/任务清单.xlsx
+++ b/static/资料/任务清单.xlsx
@@ -293,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1649,13 +1649,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
@@ -1927,11 +1927,13 @@
         <v>0.895833333333333</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:7">
       <c r="B23" s="9">
         <v>43370</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="12">
+        <v>4.5</v>
+      </c>
       <c r="D23" s="11">
         <v>0.597222222222222</v>
       </c>
@@ -1939,17 +1941,23 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F23" s="11">
-        <v>0.708333333333333</v>
+        <v>0.784722222222222</v>
       </c>
       <c r="G23" s="11">
-        <v>0.716666666666667</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0.784722222222222</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
+        <v>0.902777777777778</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="9">
+        <v>43371</v>
+      </c>
       <c r="C24" s="12"/>
+      <c r="D24" s="11">
+        <v>0.600694444444444</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.729166666666667</v>
+      </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="12"/>
